--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9874581473601819</v>
+        <v>0.9999989451458875</v>
       </c>
       <c r="E2">
-        <v>0.9874581473601819</v>
+        <v>0.9999989451458875</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9999998886332486</v>
+        <v>0.4913720682015342</v>
       </c>
       <c r="E3">
-        <v>0.9999998886332486</v>
+        <v>0.4913720682015342</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.966035783371218E-27</v>
+        <v>5.089818755836831E-27</v>
       </c>
       <c r="E4">
-        <v>3.966035783371218E-27</v>
+        <v>5.089818755836831E-27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.007583050258834986</v>
+        <v>0.1487322841097617</v>
       </c>
       <c r="E5">
-        <v>0.007583050258834986</v>
+        <v>0.1487322841097617</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.977918377191868</v>
+        <v>0.9999964337274111</v>
       </c>
       <c r="E6">
-        <v>0.977918377191868</v>
+        <v>0.9999964337274111</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3000651960420492</v>
+        <v>0.002809850116856534</v>
       </c>
       <c r="E7">
-        <v>0.6999348039579507</v>
+        <v>0.9971901498831435</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9938414228607896</v>
+        <v>0.4972219757779539</v>
       </c>
       <c r="E8">
-        <v>0.006158577139210419</v>
+        <v>0.5027780242220461</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.054750607070739E-05</v>
+        <v>3.09653195388882E-05</v>
       </c>
       <c r="E10">
-        <v>0.9999794524939293</v>
+        <v>0.9999690346804612</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9083153029046591</v>
+        <v>0.9984680879944932</v>
       </c>
       <c r="E11">
-        <v>0.09168469709534088</v>
+        <v>0.001531912005506841</v>
       </c>
       <c r="F11">
-        <v>3.630860805511475</v>
+        <v>4.410068035125732</v>
       </c>
       <c r="G11">
         <v>0.5</v>
